--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>228.2938969948476</v>
+        <v>1489.115457146066</v>
       </c>
       <c r="R2">
-        <v>2054.645072953628</v>
+        <v>13402.03911431459</v>
       </c>
       <c r="S2">
-        <v>0.03749888897886375</v>
+        <v>0.1800391172799979</v>
       </c>
       <c r="T2">
-        <v>0.03749888897886376</v>
+        <v>0.1800391172799979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>269.3279195149049</v>
+        <v>499.4919450273138</v>
       </c>
       <c r="R3">
-        <v>2423.951275634144</v>
+        <v>4495.427505245824</v>
       </c>
       <c r="S3">
-        <v>0.04423901771244332</v>
+        <v>0.06039027292318667</v>
       </c>
       <c r="T3">
-        <v>0.04423901771244332</v>
+        <v>0.06039027292318667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>34.47225380411334</v>
+        <v>85.63083108176177</v>
       </c>
       <c r="R4">
-        <v>310.25028423702</v>
+        <v>770.677479735856</v>
       </c>
       <c r="S4">
-        <v>0.005662311762459574</v>
+        <v>0.01035305836490338</v>
       </c>
       <c r="T4">
-        <v>0.005662311762459574</v>
+        <v>0.01035305836490338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>28.59632583598578</v>
+        <v>27.028065995168</v>
       </c>
       <c r="R5">
-        <v>257.366932523872</v>
+        <v>243.252593956512</v>
       </c>
       <c r="S5">
-        <v>0.00469714899015126</v>
+        <v>0.003267784992898816</v>
       </c>
       <c r="T5">
-        <v>0.00469714899015126</v>
+        <v>0.003267784992898816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>1232.067712959101</v>
+        <v>1637.717477010185</v>
       </c>
       <c r="R6">
-        <v>11088.60941663191</v>
+        <v>14739.45729309166</v>
       </c>
       <c r="S6">
-        <v>0.2023758453067129</v>
+        <v>0.1980056062812174</v>
       </c>
       <c r="T6">
-        <v>0.2023758453067129</v>
+        <v>0.1980056062812174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>51.34436537369289</v>
+        <v>38.82718763841245</v>
       </c>
       <c r="R7">
-        <v>462.099288363236</v>
+        <v>349.444688745712</v>
       </c>
       <c r="S7">
-        <v>0.008433675547979191</v>
+        <v>0.00469433888107102</v>
       </c>
       <c r="T7">
-        <v>0.008433675547979193</v>
+        <v>0.00469433888107102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>476.2766121668891</v>
+        <v>1675.12111540203</v>
       </c>
       <c r="R8">
-        <v>4286.489509502002</v>
+        <v>15076.09003861827</v>
       </c>
       <c r="S8">
-        <v>0.07823180574677654</v>
+        <v>0.2025278332225951</v>
       </c>
       <c r="T8">
-        <v>0.07823180574677654</v>
+        <v>0.2025278332225952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>561.8835665651218</v>
@@ -1013,10 +1013,10 @@
         <v>5056.952099086096</v>
       </c>
       <c r="S9">
-        <v>0.0922933541326733</v>
+        <v>0.06793363191085235</v>
       </c>
       <c r="T9">
-        <v>0.0922933541326733</v>
+        <v>0.06793363191085236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>71.91750840343667</v>
+        <v>96.32699236726377</v>
       </c>
       <c r="R10">
-        <v>647.25757563093</v>
+        <v>866.9429313053739</v>
       </c>
       <c r="S10">
-        <v>0.01181295995537646</v>
+        <v>0.01164626059907868</v>
       </c>
       <c r="T10">
-        <v>0.01181295995537646</v>
+        <v>0.01164626059907868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>59.65889307102756</v>
+        <v>30.404146192772</v>
       </c>
       <c r="R11">
-        <v>536.930037639248</v>
+        <v>273.637315734948</v>
       </c>
       <c r="S11">
-        <v>0.009799395591914827</v>
+        <v>0.003675964557301446</v>
       </c>
       <c r="T11">
-        <v>0.009799395591914827</v>
+        <v>0.003675964557301447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>2570.393006614679</v>
+        <v>1842.285038166523</v>
       </c>
       <c r="R12">
-        <v>23133.53705953211</v>
+        <v>16580.56534349871</v>
       </c>
       <c r="S12">
-        <v>0.4222052505821785</v>
+        <v>0.2227385193390773</v>
       </c>
       <c r="T12">
-        <v>0.4222052505821785</v>
+        <v>0.2227385193390774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>107.1168380580638</v>
+        <v>43.67709807366644</v>
       </c>
       <c r="R13">
-        <v>964.051542522574</v>
+        <v>393.093882662998</v>
       </c>
       <c r="S13">
-        <v>0.01759469907422413</v>
+        <v>0.005280709527792829</v>
       </c>
       <c r="T13">
-        <v>0.01759469907422413</v>
+        <v>0.005280709527792829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.407093134712</v>
+        <v>1.295116475523555</v>
       </c>
       <c r="R14">
-        <v>3.663838212408</v>
+        <v>11.656048279712</v>
       </c>
       <c r="S14">
-        <v>6.686792973255632E-05</v>
+        <v>0.0001565839813891418</v>
       </c>
       <c r="T14">
-        <v>6.686792973255633E-05</v>
+        <v>0.0001565839813891418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.480264906176</v>
+        <v>0.4344191340515555</v>
       </c>
       <c r="R15">
-        <v>4.322384155584</v>
+        <v>3.909772206464</v>
       </c>
       <c r="S15">
-        <v>7.888691127623401E-05</v>
+        <v>5.25227490244978E-05</v>
       </c>
       <c r="T15">
-        <v>7.888691127623401E-05</v>
+        <v>5.252274902449781E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.06147084108</v>
+        <v>0.07447501777955555</v>
       </c>
       <c r="R16">
-        <v>0.55323756972</v>
+        <v>0.670275160016</v>
       </c>
       <c r="S16">
-        <v>1.009702088158897E-05</v>
+        <v>9.00428264047501E-06</v>
       </c>
       <c r="T16">
-        <v>1.009702088158897E-05</v>
+        <v>9.004282640475012E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.050992900288</v>
+        <v>0.023506903648</v>
       </c>
       <c r="R17">
-        <v>0.458936102592</v>
+        <v>0.211562132832</v>
       </c>
       <c r="S17">
-        <v>8.375944919163296E-06</v>
+        <v>2.842064503771216E-06</v>
       </c>
       <c r="T17">
-        <v>8.375944919163296E-06</v>
+        <v>2.842064503771217E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>2.197020218448</v>
+        <v>1.424358921633778</v>
       </c>
       <c r="R18">
-        <v>19.773181966032</v>
+        <v>12.819230294704</v>
       </c>
       <c r="S18">
-        <v>0.0003608761265210693</v>
+        <v>0.0001722098321592273</v>
       </c>
       <c r="T18">
-        <v>0.0003608761265210693</v>
+        <v>0.0001722098321592273</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.091557150344</v>
+        <v>0.03376885933688889</v>
       </c>
       <c r="R19">
-        <v>0.824014353096</v>
+        <v>0.303919734032</v>
       </c>
       <c r="S19">
-        <v>1.503891019937463E-05</v>
+        <v>4.082769806323713E-06</v>
       </c>
       <c r="T19">
-        <v>1.503891019937463E-05</v>
+        <v>4.082769806323713E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>46.1368627571761</v>
+        <v>88.86095301519778</v>
       </c>
       <c r="R20">
-        <v>415.231764814585</v>
+        <v>799.74857713678</v>
       </c>
       <c r="S20">
-        <v>0.007578306372348919</v>
+        <v>0.01074359107934927</v>
       </c>
       <c r="T20">
-        <v>0.00757830637234892</v>
+        <v>0.01074359107934927</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>54.42959896389777</v>
+        <v>29.80650697401778</v>
       </c>
       <c r="R21">
-        <v>489.86639067508</v>
+        <v>268.25856276616</v>
       </c>
       <c r="S21">
-        <v>0.008940447009660298</v>
+        <v>0.003603707945579322</v>
       </c>
       <c r="T21">
-        <v>0.008940447009660298</v>
+        <v>0.003603707945579323</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>6.966641086891666</v>
+        <v>5.109904152087778</v>
       </c>
       <c r="R22">
-        <v>62.69976978202499</v>
+        <v>45.98913736879</v>
       </c>
       <c r="S22">
-        <v>0.001144320124680501</v>
+        <v>0.0006178047702831947</v>
       </c>
       <c r="T22">
-        <v>0.001144320124680501</v>
+        <v>0.0006178047702831948</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>5.779150375115555</v>
+        <v>1.61286332162</v>
       </c>
       <c r="R23">
-        <v>52.01235337604</v>
+        <v>14.51576989458</v>
       </c>
       <c r="S23">
-        <v>0.000949266367438233</v>
+        <v>0.0001950006544652146</v>
       </c>
       <c r="T23">
-        <v>0.000949266367438233</v>
+        <v>0.0001950006544652147</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>248.9936863341766</v>
+        <v>97.72857777977889</v>
       </c>
       <c r="R24">
-        <v>2240.94317700759</v>
+        <v>879.55720001801</v>
       </c>
       <c r="S24">
-        <v>0.04089897593930882</v>
+        <v>0.01181571703662407</v>
       </c>
       <c r="T24">
-        <v>0.04089897593930882</v>
+        <v>0.01181571703662407</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>10.37639625843278</v>
+        <v>2.316959964314445</v>
       </c>
       <c r="R25">
-        <v>93.38756632589499</v>
+        <v>20.85263967883</v>
       </c>
       <c r="S25">
-        <v>0.001704396553817862</v>
+        <v>0.0002801283303765685</v>
       </c>
       <c r="T25">
-        <v>0.001704396553817862</v>
+        <v>0.0002801283303765685</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>1.617252005096333</v>
+        <v>5.660777345380888</v>
       </c>
       <c r="R26">
-        <v>14.555268045867</v>
+        <v>50.946996108428</v>
       </c>
       <c r="S26">
-        <v>0.0002656450925244004</v>
+        <v>0.0006844072106633277</v>
       </c>
       <c r="T26">
-        <v>0.0002656450925244005</v>
+        <v>0.0006844072106633278</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>1.907940262957333</v>
+        <v>1.898786741512889</v>
       </c>
       <c r="R27">
-        <v>17.171462366616</v>
+        <v>17.089080673616</v>
       </c>
       <c r="S27">
-        <v>0.0003133926970485589</v>
+        <v>0.0002295697672094016</v>
       </c>
       <c r="T27">
-        <v>0.000313392697048559</v>
+        <v>0.0002295697672094017</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.244204169795</v>
+        <v>0.3255201376948889</v>
       </c>
       <c r="R28">
-        <v>2.197837528155</v>
+        <v>2.929681239254</v>
       </c>
       <c r="S28">
-        <v>4.011226393636347E-05</v>
+        <v>3.935649043612238E-05</v>
       </c>
       <c r="T28">
-        <v>4.011226393636348E-05</v>
+        <v>3.935649043612239E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.2025786317786667</v>
+        <v>0.102745467412</v>
       </c>
       <c r="R29">
-        <v>1.823207686008</v>
+        <v>0.9247092067079999</v>
       </c>
       <c r="S29">
-        <v>3.327497459439221E-05</v>
+        <v>1.242227603548594E-05</v>
       </c>
       <c r="T29">
-        <v>3.327497459439222E-05</v>
+        <v>1.242227603548594E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>8.728065031202</v>
+        <v>6.225678437158443</v>
       </c>
       <c r="R30">
-        <v>78.55258528081801</v>
+        <v>56.03110593442599</v>
       </c>
       <c r="S30">
-        <v>0.001433646479006548</v>
+        <v>0.0007527056716228677</v>
       </c>
       <c r="T30">
-        <v>0.001433646479006549</v>
+        <v>0.0007527056716228678</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.3637275413143334</v>
+        <v>0.1475990750842222</v>
       </c>
       <c r="R31">
-        <v>3.273547871829</v>
+        <v>1.328391675758</v>
       </c>
       <c r="S31">
-        <v>5.974482397402458E-05</v>
+        <v>1.784522957033608E-05</v>
       </c>
       <c r="T31">
-        <v>5.97448239740246E-05</v>
+        <v>1.784522957033608E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>0.9450919341205556</v>
+        <v>0.1871377371931111</v>
       </c>
       <c r="R32">
-        <v>8.505827407085</v>
+        <v>1.684239634738</v>
       </c>
       <c r="S32">
-        <v>0.0001552380417475908</v>
+        <v>2.26255881317597E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001552380417475908</v>
+        <v>2.262558813175971E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>1.114964735008889</v>
+        <v>0.06277135321511111</v>
       </c>
       <c r="R33">
-        <v>10.03468261508</v>
+        <v>0.564942178936</v>
       </c>
       <c r="S33">
-        <v>0.0001831408520499792</v>
+        <v>7.589269837396516E-06</v>
       </c>
       <c r="T33">
-        <v>0.0001831408520499792</v>
+        <v>7.589269837396517E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>0.1427083660583333</v>
+        <v>0.01076126091211111</v>
       </c>
       <c r="R34">
-        <v>1.284375294525</v>
+        <v>0.09685134820899999</v>
       </c>
       <c r="S34">
-        <v>2.344085954823956E-05</v>
+        <v>1.301073000175155E-06</v>
       </c>
       <c r="T34">
-        <v>2.344085954823956E-05</v>
+        <v>1.301073000175155E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>0.1183831773377778</v>
+        <v>0.003396627902</v>
       </c>
       <c r="R35">
-        <v>1.06544859604</v>
+        <v>0.030569651118</v>
       </c>
       <c r="S35">
-        <v>1.944527507038289E-05</v>
+        <v>4.106638516644631E-07</v>
       </c>
       <c r="T35">
-        <v>1.944527507038289E-05</v>
+        <v>4.106638516644631E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>5.100518555843333</v>
+        <v>0.2058126126745555</v>
       </c>
       <c r="R36">
-        <v>45.90466700259</v>
+        <v>1.852313514071</v>
       </c>
       <c r="S36">
-        <v>0.000837796286181581</v>
+        <v>2.488344401584065E-05</v>
       </c>
       <c r="T36">
-        <v>0.000837796286181581</v>
+        <v>2.488344401584065E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>0.2125555970438889</v>
+        <v>0.004879428254777778</v>
       </c>
       <c r="R37">
-        <v>1.913000373395</v>
+        <v>0.043914854293</v>
       </c>
       <c r="S37">
-        <v>3.491376177946965E-05</v>
+        <v>5.899394513739856E-07</v>
       </c>
       <c r="T37">
-        <v>3.491376177946966E-05</v>
+        <v>5.899394513739856E-07</v>
       </c>
     </row>
   </sheetData>
